--- a/data/不开采样效果.xlsx
+++ b/data/不开采样效果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>milc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,6 +99,52 @@
   <si>
     <t>calculix</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmmer</t>
+  </si>
+  <si>
+    <t>sjeng</t>
+  </si>
+  <si>
+    <t>lib</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h264ref</t>
+  </si>
+  <si>
+    <t>tonto</t>
+  </si>
+  <si>
+    <t>omnetpp</t>
+  </si>
+  <si>
+    <t>sphinx3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gromacs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leslie3d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>namd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gobmk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>povray</t>
   </si>
 </sst>
 </file>
@@ -108,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +171,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -151,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +222,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,22 +510,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
+    <col min="10" max="10" width="22.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -548,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I9" si="0">(F3+G3+H3)/E3</f>
+        <f t="shared" ref="I3:I27" si="0">(F3+G3+H3)/E3</f>
         <v>1.2871287128712871E-2</v>
       </c>
       <c r="J3" s="1">
@@ -771,11 +841,61 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="1">
+        <v>1479670626149</v>
+      </c>
+      <c r="C10" s="1">
+        <v>536873102</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3045885</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1450</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9655172413793099E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="1">
+        <v>443989871480</v>
+      </c>
+      <c r="C11" s="1">
+        <v>525888772</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5652917</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1190</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2436974789915968E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -802,6 +922,10 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111112E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -828,6 +952,10 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8452883263009851E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -852,6 +980,400 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1616211964729</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1398719</v>
+      </c>
+      <c r="D15" s="1">
+        <v>106588</v>
+      </c>
+      <c r="E15" s="1">
+        <v>333</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>802539343881</v>
+      </c>
+      <c r="C16" s="1">
+        <v>783641948</v>
+      </c>
+      <c r="D16" s="1">
+        <v>190529</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1860</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387101E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>326251746968</v>
+      </c>
+      <c r="C17" s="1">
+        <v>697224763</v>
+      </c>
+      <c r="D17" s="1">
+        <v>553318</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1460</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1643835616438357E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2008699714205</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2106663</v>
+      </c>
+      <c r="D18" s="1">
+        <v>208749</v>
+      </c>
+      <c r="E18" s="1">
+        <v>406</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1089900828513</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14732662</v>
+      </c>
+      <c r="D19" s="1">
+        <v>142306</v>
+      </c>
+      <c r="E19" s="1">
+        <v>546</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>351583545867</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3071310286</v>
+      </c>
+      <c r="D20" s="1">
+        <v>224291</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5390</v>
+      </c>
+      <c r="F20" s="1">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1">
+        <v>37</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2615955473098329E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>928121784114</v>
+      </c>
+      <c r="C21" s="1">
+        <v>39812214</v>
+      </c>
+      <c r="D21" s="1">
+        <v>123356</v>
+      </c>
+      <c r="E21" s="1">
+        <v>542</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2336768784547</v>
+      </c>
+      <c r="C22" s="1">
+        <v>77097</v>
+      </c>
+      <c r="D22" s="1">
+        <v>123061</v>
+      </c>
+      <c r="E22" s="1">
+        <v>613</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2336728620372</v>
+      </c>
+      <c r="C23" s="1">
+        <v>51235</v>
+      </c>
+      <c r="D23" s="1">
+        <v>109347</v>
+      </c>
+      <c r="E23" s="1">
+        <v>615</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <v>722823018772</v>
+      </c>
+      <c r="C24" s="1">
+        <v>478116651</v>
+      </c>
+      <c r="D24" s="1">
+        <v>145953</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1120</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0714285714285714E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>695545735192</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2061648</v>
+      </c>
+      <c r="D25" s="1">
+        <v>103943</v>
+      </c>
+      <c r="E25" s="1">
+        <v>312</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>667156267949</v>
+      </c>
+      <c r="C26" s="1">
+        <v>19806960</v>
+      </c>
+      <c r="D26" s="1">
+        <v>188902</v>
+      </c>
+      <c r="E26" s="1">
+        <v>409</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>495574368573</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42447</v>
+      </c>
+      <c r="D27" s="1">
+        <v>88893</v>
+      </c>
+      <c r="E27" s="1">
+        <v>125</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
